--- a/DOCUMENTACIÓN/ELICITACION/10. Mapa de Procesos/G1_MAPA_PROC_10N_14569_V2.0.0.xlsx
+++ b/DOCUMENTACIÓN/ELICITACION/10. Mapa de Procesos/G1_MAPA_PROC_10N_14569_V2.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\SEPTIMO SEMESTRE MAYO 24 - SEPTIEMBRE 24\14569 ING REQUISITOS SW\PullaguariAxel_14569__G1_IR\DOCUMENTACIÓN\ELICITACION\10. Mapa de Procesos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5017DA2-B4D5-4A9B-A9B3-5E31A100148E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E346D5-7FF5-430E-B9C2-5866845FE5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
   <sheets>
     <sheet name="MAPA 10 N" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS UFA - ESPE
- MAPA DE PROCESOS DE 10 NIVELES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Nivel 1</t>
   </si>
@@ -102,12 +98,22 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS UFA - ESPE
+ MAPA DE PROCESOS DE 10 NIVELES Home Passion</t>
+  </si>
+  <si>
+    <t>Pago: 50% al realizar el pedido y 50% posterior</t>
+  </si>
+  <si>
+    <t>Transferencias y depósitos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3883,7 +3889,7 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>4 Horas</a:t>
+            <a:t>2 días</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4023,7 +4029,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>5 Horas</a:t>
+            <a:t>3 Horas</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7729,8 +7735,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5110033" y="6976419"/>
-          <a:ext cx="999095" cy="937534"/>
+          <a:off x="4636666" y="7027906"/>
+          <a:ext cx="841752" cy="950405"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -8187,8 +8193,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11981419" y="6819899"/>
-          <a:ext cx="999095" cy="937534"/>
+          <a:off x="10810102" y="6871386"/>
+          <a:ext cx="818891" cy="947830"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -8956,15 +8962,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE3A4D-6C57-42F5-813D-06E56D78CC84}">
   <dimension ref="A2:AX62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L24" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="O8" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:50" ht="30" customHeight="1">
+    <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9015,7 +9021,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" ht="30" customHeight="1">
+    <row r="3" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -9047,7 +9053,7 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
     </row>
-    <row r="4" spans="1:50" ht="30" customHeight="1">
+    <row r="4" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -9079,7 +9085,7 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
     </row>
-    <row r="5" spans="1:50" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -9111,7 +9117,7 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
     </row>
-    <row r="6" spans="1:50" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9143,137 +9149,143 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:50" ht="12.75" customHeight="1">
+    <row r="7" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:50" ht="12.75" customHeight="1">
+    <row r="8" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:50" ht="15" customHeight="1">
+    <row r="9" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+      <c r="AD9" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" ht="15" customHeight="1">
+    <row r="10" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:50" ht="15" customHeight="1">
+    <row r="11" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
+      <c r="AD11" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" ht="15" customHeight="1">
+    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:50" ht="15" customHeight="1">
+    <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:50" ht="15" customHeight="1">
+    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:50" ht="15" customHeight="1">
+    <row r="15" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:50" ht="15" customHeight="1">
+    <row r="16" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1">
+    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" s="3"/>
       <c r="V18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1">
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1">
+    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1">
+    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1">
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -9281,225 +9293,225 @@
       <c r="E23" s="1"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1">
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="K24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1">
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1">
+    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1">
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1">
+    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1">
+    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1"/>
-    <row r="50" spans="1:30" ht="15" customHeight="1"/>
-    <row r="51" spans="1:30" ht="15" customHeight="1">
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B60" s="6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1"/>
-    <row r="54" spans="1:30" ht="15" customHeight="1"/>
-    <row r="55" spans="1:30" ht="15" customHeight="1"/>
-    <row r="56" spans="1:30" ht="15" customHeight="1"/>
-    <row r="57" spans="1:30" ht="15" customHeight="1"/>
-    <row r="58" spans="1:30" ht="15" customHeight="1"/>
-    <row r="60" spans="1:30">
-      <c r="B60" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -9530,7 +9542,7 @@
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -9561,7 +9573,7 @@
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>

--- a/DOCUMENTACIÓN/ELICITACION/10. Mapa de Procesos/G1_MAPA_PROC_10N_14569_V2.0.0.xlsx
+++ b/DOCUMENTACIÓN/ELICITACION/10. Mapa de Procesos/G1_MAPA_PROC_10N_14569_V2.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\SEPTIMO SEMESTRE MAYO 24 - SEPTIEMBRE 24\14569 ING REQUISITOS SW\PullaguariAxel_14569__G1_IR\DOCUMENTACIÓN\ELICITACION\10. Mapa de Procesos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E346D5-7FF5-430E-B9C2-5866845FE5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5017DA2-B4D5-4A9B-A9B3-5E31A100148E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
   <sheets>
     <sheet name="MAPA 10 N" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+  <si>
+    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS UFA - ESPE
+ MAPA DE PROCESOS DE 10 NIVELES</t>
+  </si>
   <si>
     <t>Nivel 1</t>
   </si>
@@ -98,22 +102,12 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
-  <si>
-    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS UFA - ESPE
- MAPA DE PROCESOS DE 10 NIVELES Home Passion</t>
-  </si>
-  <si>
-    <t>Pago: 50% al realizar el pedido y 50% posterior</t>
-  </si>
-  <si>
-    <t>Transferencias y depósitos</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3889,7 +3883,7 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>2 días</a:t>
+            <a:t>4 Horas</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4029,7 +4023,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>3 Horas</a:t>
+            <a:t>5 Horas</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7735,8 +7729,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4636666" y="7027906"/>
-          <a:ext cx="841752" cy="950405"/>
+          <a:off x="5110033" y="6976419"/>
+          <a:ext cx="999095" cy="937534"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -8193,8 +8187,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10810102" y="6871386"/>
-          <a:ext cx="818891" cy="947830"/>
+          <a:off x="11981419" y="6819899"/>
+          <a:ext cx="999095" cy="937534"/>
           <a:chOff x="9484702" y="2765066"/>
           <a:chExt cx="1089646" cy="1074767"/>
         </a:xfrm>
@@ -8962,15 +8956,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE3A4D-6C57-42F5-813D-06E56D78CC84}">
   <dimension ref="A2:AX62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O8" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="L24" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="30" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9021,7 +9015,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" ht="30" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -9053,7 +9047,7 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
     </row>
-    <row r="4" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" ht="30" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -9085,7 +9079,7 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
     </row>
-    <row r="5" spans="1:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -9117,7 +9111,7 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
     </row>
-    <row r="6" spans="1:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -9149,143 +9143,137 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
     </row>
-    <row r="7" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" ht="15" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="AD9" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="10" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="AD11" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" ht="15" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="I18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" s="3"/>
       <c r="V18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -9293,225 +9281,225 @@
       <c r="E23" s="1"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="K24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" customHeight="1">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15" customHeight="1">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15" customHeight="1">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" ht="15" customHeight="1"/>
+    <row r="50" spans="1:30" ht="15" customHeight="1"/>
+    <row r="51" spans="1:30" ht="15" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" ht="15" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15" customHeight="1"/>
+    <row r="54" spans="1:30" ht="15" customHeight="1"/>
+    <row r="55" spans="1:30" ht="15" customHeight="1"/>
+    <row r="56" spans="1:30" ht="15" customHeight="1"/>
+    <row r="57" spans="1:30" ht="15" customHeight="1"/>
+    <row r="58" spans="1:30" ht="15" customHeight="1"/>
+    <row r="60" spans="1:30">
       <c r="B60" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -9542,7 +9530,7 @@
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -9573,7 +9561,7 @@
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
